--- a/data/rejection_reasons.xlsx
+++ b/data/rejection_reasons.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{815BF040-039B-4C62-9C67-88B311358BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ABB6D27-600A-4BEE-AF72-F9F5A4767642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Reason</t>
   </si>
@@ -42,7 +42,7 @@
     <t>All Images Blurry</t>
   </si>
   <si>
-    <t>Please upload high-quality brand images as the current ones appear blurry.</t>
+    <t>Please upload high-quality Brand images as the current ones appear blurry.</t>
   </si>
   <si>
     <t>FSSAI License Missing</t>
@@ -186,7 +186,7 @@
     <t xml:space="preserve"> Cropped Image </t>
   </si>
   <si>
-    <t>The image is cropped and not fully visible. Please upload the complete image without any cropping or trimming.</t>
+    <t>The "X" image is cropped and not fully visible. Please upload the complete image without any cropping or trimming.</t>
   </si>
   <si>
     <t>Ingredients Image Missing</t>
@@ -204,7 +204,7 @@
     <t>Partially Clear Image</t>
   </si>
   <si>
-    <t>The image is partially unclear or has low visibility in certain areas. Please replace it with a high-quality, clearly visible image.</t>
+    <t>The "X" image is partially unclear or has low visibility in certain areas. Please replace it with a high-quality, clearly visible image.</t>
   </si>
   <si>
     <t>Multiple Color Products Mapped</t>
@@ -231,7 +231,7 @@
     <t>Contact information for the service centre or brand's customer care (including phone number and email) is missing. Please provide these details to ensure post-purchase support.</t>
   </si>
   <si>
-    <t>HSN Code Length Incorrect (Only 6 Digits Provided)</t>
+    <t>HSN Code Length Incorrect</t>
   </si>
   <si>
     <t>The HSN code must be exactly 8 digits long. The current entry contains only 6 digits. Please refer to the official HSN directory and update the code accordingly.</t>
@@ -249,10 +249,10 @@
     <t>The unit of measurement listed does not match what is mentioned on the brand’s official website. Please review and update the UOM along with corresponding images if necessary.</t>
   </si>
   <si>
-    <t>UPC Already Exists on “RID”</t>
-  </si>
-  <si>
-    <t>The UPC you have submitted already exists in the system under another product ID ("RID"). Please verify and ensure that each UPC is unique to its product.</t>
+    <t xml:space="preserve">UPC Already Exists </t>
+  </si>
+  <si>
+    <t>The UPC you have submitted already exists in the system under another product ID. Please verify and ensure that each UPC is unique to its product.</t>
   </si>
   <si>
     <t>FSSAI License Code Invalid</t>
@@ -270,20 +270,101 @@
     <t>Ingredients Not Provided in Image or Attribute</t>
   </si>
   <si>
-    <t>For certain products, the ingredients can be provided either in the image or as a product attribute. However, at least one of them must be present. Please ensure that the ingredients are clearly mentioned either in the image or in the product details.</t>
+    <r>
+      <t xml:space="preserve">Please update the ingredients in either the image </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the text content, as one of these must accurately reflect the current Product Request.</t>
+    </r>
   </si>
   <si>
     <t>Multiple Values Mapped (Size)</t>
   </si>
   <si>
     <t>Multiple sizes are mapped to this product. Please update with the correct and applicable size.</t>
+  </si>
+  <si>
+    <t>Po name error</t>
+  </si>
+  <si>
+    <t>Unable to find the Manufacturer /Po name in retail system. Please provide correct PO name.</t>
+  </si>
+  <si>
+    <t>Incorrect Size chart</t>
+  </si>
+  <si>
+    <t>The size chart mapped to the product does not match the provided size information. Kindly verify and update accordingly.</t>
+  </si>
+  <si>
+    <t>Shadow/Flash Light  Images</t>
+  </si>
+  <si>
+    <t>Please replace shadowed/Flash lighed images with high-quality brand images taken in a professional setting.</t>
+  </si>
+  <si>
+    <t>Brand name display</t>
+  </si>
+  <si>
+    <t>The brand name displayed with the product has multiple choices in the system. Please review and update the correct one</t>
+  </si>
+  <si>
+    <t>Brand Name Confirmation</t>
+  </si>
+  <si>
+    <t>Brand name mapped with the product is not accuurate. please review it &amp; provide the correct brand name</t>
+  </si>
+  <si>
+    <t>Incorrect Manufacturer &amp; Marketer address</t>
+  </si>
+  <si>
+    <t>The Manufacturer and Marketer addresses mapped to the product may be incorrect. Please review and update them if necessary.</t>
+  </si>
+  <si>
+    <t>Need brand images with white background</t>
+  </si>
+  <si>
+    <t>Kindly re-upload the brand images with a white background, as the existing ones have a green background, which is not acceptable.</t>
+  </si>
+  <si>
+    <t>Capacity Missing in Title or Image</t>
+  </si>
+  <si>
+    <t>The Capacity of Bottle/Box is not mentioned either in the product title or in the image. This information is mandatory and must be included.</t>
+  </si>
+  <si>
+    <t>Back Image of Model Missing</t>
+  </si>
+  <si>
+    <t>This creation lacks a model reference showing the product's back image. Providing this is mandatory. Please upload the required reference and resubmit.</t>
+  </si>
+  <si>
+    <t>Multiple Packaging Type</t>
+  </si>
+  <si>
+    <t>Multiple packaging types are mapped in brand images. Please upload an image showing the correct packaging type.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +408,24 @@
       <color rgb="FF000000"/>
       <name val="Dubai"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -369,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -382,6 +481,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,16 +817,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection sqref="A1:B41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="2" width="138.28515625" customWidth="1"/>
+    <col min="2" max="2" width="188.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -785,7 +886,7 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4"/>
@@ -1310,7 +1411,7 @@
       <c r="A40" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="4"/>
@@ -1337,8 +1438,12 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="21">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1347,16 +1452,77 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="21">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="21">
+      <c r="A46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="21">
+      <c r="A49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/rejection_reasons.xlsx
+++ b/data/rejection_reasons.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29130"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ABB6D27-600A-4BEE-AF72-F9F5A4767642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{065FB085-C183-49B4-997C-3F7A697CA065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Reason</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Justification</t>
   </si>
   <si>
-    <t>All Images Blurry</t>
+    <t>All Image Blurry</t>
   </si>
   <si>
     <t>Please upload high-quality Brand images as the current ones appear blurry.</t>
@@ -204,7 +204,7 @@
     <t>Partially Clear Image</t>
   </si>
   <si>
-    <t>The "X" image is partially unclear or has low visibility in certain areas. Please replace it with a high-quality, clearly visible image.</t>
+    <t>The "X" image is partially unclear or has low visibility in certain areas. Please replace it with a high-quality, clearly visible image.</t>
   </si>
   <si>
     <t>Multiple Color Products Mapped</t>
@@ -359,12 +359,48 @@
   <si>
     <t>Multiple packaging types are mapped in brand images. Please upload an image showing the correct packaging type.</t>
   </si>
+  <si>
+    <t xml:space="preserve">All Images Failed to Load </t>
+  </si>
+  <si>
+    <t>The submitted images could not be loaded. Please re-upload all required images to ensure proper review of the creation.</t>
+  </si>
+  <si>
+    <t>Repeated Images Mapped</t>
+  </si>
+  <si>
+    <t>The product back images have been mapped multiple times with the same images. Kindly provide proper, distinct images for accurate representation</t>
+  </si>
+  <si>
+    <t>Missing Visual Representation of Pack Contents</t>
+  </si>
+  <si>
+    <t>High-quality images clearly depicting the actual items included in the pack must be provided. Visuals should show the quantity, arrangement, and presentation of the contents to enhance customer understanding and reduce post-purchase discrepancies or returns.</t>
+  </si>
+  <si>
+    <t>Multiple Marketer/Manufacture Address Mapped, Wrongly mapped in Marketer or manufacture attribute</t>
+  </si>
+  <si>
+    <t>Marketer address is missing. Both marketer and manufacturer addresses must be accurately mapped and provided in their respective address attributes as per catalog governance standards. Please update with complete and valid address details before resubmitting for approval.(Both attributes are mapped with Manufacturer address from Image)</t>
+  </si>
+  <si>
+    <t>InnerCase or Outer Case Value Should Not be Zero</t>
+  </si>
+  <si>
+    <t>The Outer Case/inner case field must contain valid whole number greater than zero. Decimals and zero are not allowed.</t>
+  </si>
+  <si>
+    <t>Number of Pages Missing</t>
+  </si>
+  <si>
+    <t>The number of pages for the product is missing, which is a mandatory attribute. Kindly update this information either in the product title or image to ensure compliance with catalog requirements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +462,39 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,8 +507,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -464,11 +543,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD1D5DB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD1D5DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD1D5DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD1D5DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -483,6 +577,17 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -868,7 +973,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -901,7 +1006,7 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4"/>
@@ -1201,7 +1306,7 @@
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="4"/>
@@ -1242,11 +1347,11 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="21">
+    <row r="29" spans="1:9" ht="21.75">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="4"/>
@@ -1524,6 +1629,54 @@
         <v>101</v>
       </c>
     </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="29.25">
+      <c r="A55" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/rejection_reasons.xlsx
+++ b/data/rejection_reasons.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{065FB085-C183-49B4-997C-3F7A697CA065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43ED58CE-675C-4239-9612-1EA02C574633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Reason</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Please upload high-quality Brand images as the current ones appear blurry.</t>
   </si>
   <si>
-    <t>FSSAI License Missing</t>
+    <t>FSSAI License Image Missing</t>
   </si>
   <si>
     <t>The FSSAI license image is missing for this product. Kindly provide the correct FSSAI license image. Note: This reason also applies to Manufacturing or Ayush Licenses.</t>
@@ -183,7 +183,7 @@
     <t>Multiple dimension or nutrition images are mapped to this product. Please provide only one correct and relevant image.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cropped Image </t>
+    <t xml:space="preserve">Cropped Image </t>
   </si>
   <si>
     <t>The "X" image is cropped and not fully visible. Please upload the complete image without any cropping or trimming.</t>
@@ -394,6 +394,24 @@
   </si>
   <si>
     <t>The number of pages for the product is missing, which is a mandatory attribute. Kindly update this information either in the product title or image to ensure compliance with catalog requirements</t>
+  </si>
+  <si>
+    <t>Clear Display of Puzzle Pieces in Product Images</t>
+  </si>
+  <si>
+    <t>High-quality images must clearly display the actual puzzle pieces included in the jigsaw puzzle pack. The visuals should illustrate the quantity, layout, and arrangement of the pieces to accurately represent how they are presented in the set. This will help customers better understand the contents, improve transparency, and minimize post-purchase confusion or returns.</t>
+  </si>
+  <si>
+    <t>Size Reference Missing</t>
+  </si>
+  <si>
+    <t>The product listing is missing a required size reference. Please either provide a size guide or  include clear product dimensions (e.g., diameter in inches or centimeters), or explicitly state the size (e.g., Small, Medium, Large, or weight range) in the product title. This information is mandatory for catalog accuracy, searchability, and customer clarity.</t>
+  </si>
+  <si>
+    <t>Image Quality Issue</t>
+  </si>
+  <si>
+    <t>The submitted product image of the back panel packaging is not clearly readable due to poor resolution, low contrast, or inadequate lighting. Key information such as ingredients, nutritional facts, allergen warnings, and usage instructions are difficult to discern, which compromises accuracy in catalog documentation and customer safety.All product images  must be high-resolution, sharp, and fully legible. Please resubmit a clear, well-lit image of the back panel packaging where all text and details are easily readable.</t>
   </si>
 </sst>
 </file>
@@ -922,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1677,6 +1695,30 @@
         <v>113</v>
       </c>
     </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/rejection_reasons.xlsx
+++ b/data/rejection_reasons.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43ED58CE-675C-4239-9612-1EA02C574633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A9063C-0900-4507-A655-48CD4D24AE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Reason</t>
   </si>
@@ -412,6 +412,18 @@
   </si>
   <si>
     <t>The submitted product image of the back panel packaging is not clearly readable due to poor resolution, low contrast, or inadequate lighting. Key information such as ingredients, nutritional facts, allergen warnings, and usage instructions are difficult to discern, which compromises accuracy in catalog documentation and customer safety.All product images  must be high-resolution, sharp, and fully legible. Please resubmit a clear, well-lit image of the back panel packaging where all text and details are easily readable.</t>
+  </si>
+  <si>
+    <t>Incorrect Size chart Mapped</t>
+  </si>
+  <si>
+    <t>Request rejected due to an incorrect size chart being mapped. Please update with the correct size chart containing all accurate measurements.</t>
+  </si>
+  <si>
+    <t>Packaging Unclear</t>
+  </si>
+  <si>
+    <t>The submitted image of the packaging is unclear and difficult to read due to poor resolution, low contrast, or insufficient lighting. Additionally, the packaging image shows only 2 units, but 3 items have been mapped to it. Please update the image to ensure clarity and accuracy, reflecting the correct number of units.</t>
   </si>
 </sst>
 </file>
@@ -940,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1719,6 +1731,22 @@
         <v>119</v>
       </c>
     </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/rejection_reasons.xlsx
+++ b/data/rejection_reasons.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A9063C-0900-4507-A655-48CD4D24AE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBC55B9-73F5-4332-A2FD-2416AD030F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Reason</t>
   </si>
@@ -120,7 +120,7 @@
     <t>Title &amp; Image Mismatch</t>
   </si>
   <si>
-    <t>The product title does not match the uploaded images (e.g., item count, pack count). Please upload appropriate images that align with the product description.</t>
+    <t>The uploaded images do not accurately reflect the product description. Please ensure the images show the correct item count, packaging, and product details as stated in the reference name</t>
   </si>
   <si>
     <t>Missing Open View Image</t>
@@ -425,12 +425,36 @@
   <si>
     <t>The submitted image of the packaging is unclear and difficult to read due to poor resolution, low contrast, or insufficient lighting. Additionally, the packaging image shows only 2 units, but 3 items have been mapped to it. Please update the image to ensure clarity and accuracy, reflecting the correct number of units.</t>
   </si>
+  <si>
+    <t>AI Generated Images</t>
+  </si>
+  <si>
+    <t>Please note that AI-generated images are not accepted, as they do not meet professional standards. We require images captured in a real, professional setting for approval.</t>
+  </si>
+  <si>
+    <t>Digitally Manipulated Images</t>
+  </si>
+  <si>
+    <t>The image has been rejected due to the use of digitally manipulated or composite elements. The duffle bag appears to be cut and pasted into the scene, resulting in unnatural shadows, inconsistent lighting, and a lack of realistic depth—indicative of photo editing rather than a genuine product shot.Please provide a real-life photograph that accurately reflects the product and its usage.</t>
+  </si>
+  <si>
+    <t>Nutrition Info Missing in Attribute</t>
+  </si>
+  <si>
+    <t>Since the nutritional information is currently displayed only on the image, it cannot be accepted. Please ensure all required details are fully filled out, properly mapped in the product attributes, and presented within the content/text fields—with correct structure and proper formatting. Information shown on images is not sufficient for compliance</t>
+  </si>
+  <si>
+    <t>Product Not Relased Yet</t>
+  </si>
+  <si>
+    <t>Product listing cannot be approved at this time as the item has not yet been officially launched or made available for public sale. we only accept submissions for products that are currently active, in-market, and available for purchase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +547,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -592,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -618,6 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,7 +1204,7 @@
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="4"/>
@@ -1747,6 +1780,38 @@
         <v>123</v>
       </c>
     </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/rejection_reasons.xlsx
+++ b/data/rejection_reasons.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBC55B9-73F5-4332-A2FD-2416AD030F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A102C53A-B650-4048-B8A8-492CBC206403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
